--- a/output/products.xlsx
+++ b/output/products.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,305 +440,33 @@
     </row>
     <row r="2">
       <c r="A2">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525163","Link")</f>
+        <f>HYPERLINK("https://www.kotnauction.com/listings/1544930","Link")</f>
         <v/>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2 Maxon Motor Brushless DC Stepper Motors (MODEL: 459270)</t>
+          <t>MICROSOFT SURFACE PRO 7 - TOUCHSCREEN LAPTOP/TABLET - INTEL I5 - 8GB RAM - 256GB SSD - WINDOWS 10 PRO - PLATINUM/BLUE</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$5</t>
+          <t>$415</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525164","Link")</f>
+        <f>HYPERLINK("https://www.kotnauction.com/listings/1544922","Link")</f>
         <v/>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2 Maxon Motor Brushless DC Stepper Motors (MODEL: 459270)</t>
+          <t>Monolith by Monoprice M518HT THX Certified 5.1 Home Theater System (MODEL: 41287)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525165","Link")</f>
-        <v/>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2 Maxon Motor Brushless DC Stepper Motors (MODEL: 459270)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525241","Link")</f>
-        <v/>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Thermaltake AC-053-CN1OTN-C1 TT Gaming PCI-E x16 3.0 Black Extender Riser Cable 200mm</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525367","Link")</f>
-        <v/>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>OTTERBOX DEFENDER SERIES DROP -IPHONE 15 PRO MAX- BLACK (MODEL:77-92548)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525469","Link")</f>
-        <v/>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>OFFICIAL MICROSOFT XBOX STEREO GAMING OVER THE EAR HEADSET / XBOXSERIES X/S - XBOX ONE - WINDOWS- BLACK  (Model: 8LI-00001)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525520","Link")</f>
-        <v/>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>PROSCAN CD RADIO BOOMBOX WITH FM RADIO -BLACK (MODEL:PRCD261-BLACK)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525593","Link")</f>
-        <v/>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Wenzhou electronics high quality uv  &amp; magnetic detecting bill counter - light grey (model: 2200d uv)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525708","Link")</f>
-        <v/>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>BLUE SEA SYSTEMS M SERIES 4 POSITION SELECTOR BATTERY SWITCH - 48 VOLTS - 300 AMPS - RED -  (MODEL: 6007)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525722","Link")</f>
-        <v/>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>BLUE SEA SYSTEMS M SERIES 4 POSITION SELECTOR BATTERY SWITCH - 48 VOLTS - 300 AMPS - RED -  (MODEL: 6007)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525724","Link")</f>
-        <v/>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>BLUE SEA SYSTEMS M SERIES 4 POSITION SELECTOR BATTERY SWITCH - 48 VOLTS - 300 AMPS - RED -  (MODEL: 6007)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525727","Link")</f>
-        <v/>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>BLUE SEA SYSTEMS M SERIES 4 POSITION SELECTOR BATTERY SWITCH - 48 VOLTS - 300 AMPS - RED -  (MODEL: 6007)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525731","Link")</f>
-        <v/>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>BLUE SEA SYSTEMS M SERIES 4 POSITION SELECTOR BATTERY SWITCH - 48 VOLTS - 300 AMPS - RED -  (MODEL: 6007)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525796","Link")</f>
-        <v/>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>CHOETECH FAST WIRELESS CHARGING PAD &amp; STAND (MODEL: T511-S+T524-S)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525798","Link")</f>
-        <v/>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>CHOETECH FAST WIRELESS CHARGING PAD &amp; STAND (MODEL: T511-S+T524-S)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525802","Link")</f>
-        <v/>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>CHOETECH FAST WIRELESS CHARGING PAD &amp; STAND (MODEL: T511-S+T524-S)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525863","Link")</f>
-        <v/>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>asco 300 series surge protective device - model 331 for ac distriution panel circuits or 120v power supplies, 120/240 VAC | 80kA/Phase (model: edco emc-240b)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525973","Link")</f>
-        <v/>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Hercules Tuff Charging Station - 6 Ports LIGHTNING &amp; Micro USB Compatible - WHITE</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>$5</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20">
-        <f>HYPERLINK("https://www.kotnauction.com/listings/1525999","Link")</f>
-        <v/>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>6 Multi USB Charging Cable - 3 in 1 Type C/Micro USB/LIGHTNING CABLE - BLACK</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>$5</t>
+          <t>$480</t>
         </is>
       </c>
     </row>
